--- a/CAIM CB R1 - Optimisation.xlsx
+++ b/CAIM CB R1 - Optimisation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\QRA\Alan\CB Workshop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CB Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9897832-C2D3-4E68-8134-808F15588399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B9268CE-2D8A-4E0B-9D83-1C2A782DA2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11829" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5442,15 +5442,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>5443</xdr:rowOff>
+      <xdr:colOff>142474</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>24653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>430162</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>98068</xdr:rowOff>
+      <xdr:colOff>436565</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>117278</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5473,8 +5473,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21629914" y="185057"/>
-          <a:ext cx="6771091" cy="3684911"/>
+          <a:off x="21612945" y="24653"/>
+          <a:ext cx="6761486" cy="3678507"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5983,8 +5983,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AQ213"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BD15" sqref="BD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="14.15"/>
@@ -18057,6 +18057,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A2:E2"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
@@ -18135,6 +18136,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="K11" workbookViewId="0">
